--- a/SchedulingData/dynamic11/pso/scheduling1_8.xlsx
+++ b/SchedulingData/dynamic11/pso/scheduling1_8.xlsx
@@ -462,40 +462,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>57</v>
+        <v>49.12</v>
       </c>
       <c r="E2" t="n">
-        <v>26.48</v>
+        <v>25.788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>42.7</v>
+        <v>61.6</v>
       </c>
       <c r="E3" t="n">
-        <v>26.92</v>
+        <v>25.52</v>
       </c>
     </row>
     <row r="4">
@@ -504,93 +504,93 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42.7</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>92.48</v>
+        <v>51.64</v>
       </c>
       <c r="E4" t="n">
-        <v>23.072</v>
+        <v>26.516</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>51.64</v>
       </c>
       <c r="D5" t="n">
-        <v>87.06</v>
+        <v>132.74</v>
       </c>
       <c r="E5" t="n">
-        <v>25.944</v>
+        <v>22.036</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>49.12</v>
       </c>
       <c r="D6" t="n">
-        <v>60</v>
+        <v>89.72</v>
       </c>
       <c r="E6" t="n">
-        <v>25.2</v>
+        <v>22.368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond13</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>87.06</v>
+        <v>89.72</v>
       </c>
       <c r="D7" t="n">
-        <v>143.82</v>
+        <v>170</v>
       </c>
       <c r="E7" t="n">
-        <v>21.888</v>
+        <v>19.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>pond24</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>49.12</v>
+        <v>43.4</v>
       </c>
       <c r="E8" t="n">
-        <v>25.788</v>
+        <v>26.36</v>
       </c>
     </row>
     <row r="9">
@@ -599,136 +599,136 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
         <v>60</v>
       </c>
-      <c r="D9" t="n">
-        <v>132.82</v>
-      </c>
       <c r="E9" t="n">
-        <v>22.028</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>143.82</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>201.32</v>
+        <v>60.9</v>
       </c>
       <c r="E10" t="n">
-        <v>19.248</v>
+        <v>26.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>49.12</v>
+        <v>132.74</v>
       </c>
       <c r="D11" t="n">
-        <v>110.12</v>
+        <v>190.66</v>
       </c>
       <c r="E11" t="n">
-        <v>21.308</v>
+        <v>18.844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>190.66</v>
       </c>
       <c r="D12" t="n">
-        <v>76.68000000000001</v>
+        <v>246.2</v>
       </c>
       <c r="E12" t="n">
-        <v>26.472</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>92.48</v>
+        <v>60</v>
       </c>
       <c r="D13" t="n">
-        <v>140.94</v>
+        <v>133.4</v>
       </c>
       <c r="E13" t="n">
-        <v>20.336</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>76.68000000000001</v>
+        <v>43.4</v>
       </c>
       <c r="D14" t="n">
-        <v>132.78</v>
+        <v>98.08</v>
       </c>
       <c r="E14" t="n">
-        <v>21.992</v>
+        <v>22.512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond24</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>57</v>
+        <v>170</v>
       </c>
       <c r="D15" t="n">
-        <v>109.6</v>
+        <v>212.8</v>
       </c>
       <c r="E15" t="n">
-        <v>22.84</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -736,165 +736,165 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>110.12</v>
+        <v>133.4</v>
       </c>
       <c r="D16" t="n">
-        <v>155.98</v>
+        <v>184.26</v>
       </c>
       <c r="E16" t="n">
-        <v>17.852</v>
+        <v>18.024</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>155.98</v>
+        <v>61.6</v>
       </c>
       <c r="D17" t="n">
-        <v>225.4</v>
+        <v>109.62</v>
       </c>
       <c r="E17" t="n">
-        <v>13.54</v>
+        <v>22.348</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond13</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>109.6</v>
+        <v>60.9</v>
       </c>
       <c r="D18" t="n">
-        <v>173</v>
+        <v>117.66</v>
       </c>
       <c r="E18" t="n">
-        <v>19.12</v>
+        <v>22.044</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>132.82</v>
+        <v>117.66</v>
       </c>
       <c r="D19" t="n">
-        <v>198.02</v>
+        <v>169.16</v>
       </c>
       <c r="E19" t="n">
-        <v>18.128</v>
+        <v>18.524</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>140.94</v>
+        <v>169.16</v>
       </c>
       <c r="D20" t="n">
-        <v>204.26</v>
+        <v>217.72</v>
       </c>
       <c r="E20" t="n">
-        <v>17.144</v>
+        <v>15.788</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond16</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>204.26</v>
+        <v>212.8</v>
       </c>
       <c r="D21" t="n">
-        <v>290.2</v>
+        <v>292.92</v>
       </c>
       <c r="E21" t="n">
-        <v>13.66</v>
+        <v>13.348</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>198.02</v>
+        <v>98.08</v>
       </c>
       <c r="D22" t="n">
-        <v>270.62</v>
+        <v>140.18</v>
       </c>
       <c r="E22" t="n">
-        <v>13.968</v>
+        <v>19.432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond16</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>270.62</v>
+        <v>246.2</v>
       </c>
       <c r="D23" t="n">
-        <v>335.84</v>
+        <v>321.9</v>
       </c>
       <c r="E23" t="n">
-        <v>10.536</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>173</v>
+        <v>184.26</v>
       </c>
       <c r="D24" t="n">
-        <v>226.7</v>
+        <v>258.74</v>
       </c>
       <c r="E24" t="n">
-        <v>16.36</v>
+        <v>14.176</v>
       </c>
     </row>
     <row r="25">
@@ -903,112 +903,112 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond35</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>226.7</v>
+        <v>140.18</v>
       </c>
       <c r="D25" t="n">
-        <v>296.8</v>
+        <v>223.58</v>
       </c>
       <c r="E25" t="n">
-        <v>12.94</v>
+        <v>14.692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>296.8</v>
+        <v>109.62</v>
       </c>
       <c r="D26" t="n">
-        <v>332.84</v>
+        <v>187.42</v>
       </c>
       <c r="E26" t="n">
-        <v>10.476</v>
+        <v>18.188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>132.78</v>
+        <v>187.42</v>
       </c>
       <c r="D27" t="n">
-        <v>203.58</v>
+        <v>239.38</v>
       </c>
       <c r="E27" t="n">
-        <v>17.512</v>
+        <v>14.132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>290.2</v>
+        <v>258.74</v>
       </c>
       <c r="D28" t="n">
-        <v>353.76</v>
+        <v>315.32</v>
       </c>
       <c r="E28" t="n">
-        <v>10.924</v>
+        <v>10.648</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>201.32</v>
+        <v>223.58</v>
       </c>
       <c r="D29" t="n">
-        <v>247.2</v>
+        <v>267.34</v>
       </c>
       <c r="E29" t="n">
-        <v>16.3</v>
+        <v>11.956</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond35</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>203.58</v>
+        <v>267.34</v>
       </c>
       <c r="D30" t="n">
-        <v>281.98</v>
+        <v>306.34</v>
       </c>
       <c r="E30" t="n">
-        <v>12.772</v>
+        <v>9.196</v>
       </c>
     </row>
     <row r="31">
@@ -1017,17 +1017,17 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>247.2</v>
+        <v>239.38</v>
       </c>
       <c r="D31" t="n">
-        <v>306.98</v>
+        <v>293.8</v>
       </c>
       <c r="E31" t="n">
-        <v>12.452</v>
+        <v>9.82</v>
       </c>
     </row>
   </sheetData>
